--- a/revref_accesscontrol.xlsx
+++ b/revref_accesscontrol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CECB35-90E9-4A88-9313-DDB45263C551}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAC44C0-FC0B-4D77-ACF0-6E57AE373B9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30960" windowHeight="8805" activeTab="7" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30960" windowHeight="8805" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
   <si>
     <t>header1</t>
   </si>
@@ -58,39 +58,6 @@
   <si>
     <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向け逆引きガイド _コース設定</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ギャクビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向け逆引きガイド _アカウント</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ギャクビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>公開日や公開終了日を設定したい</t>
@@ -379,6 +346,29 @@
   <si>
     <t>AC_4.png</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用制限</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向け逆引きガイド _利用制限</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギャクビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -849,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -864,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -880,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -911,7 +901,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -932,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -947,8 +937,8 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -958,38 +948,38 @@
     <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -998,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1058,7 +1048,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1079,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1094,8 +1084,8 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1109,13 +1099,13 @@
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1189,7 +1179,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1210,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1225,8 +1215,8 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1240,7 +1230,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -1314,7 +1304,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1335,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1350,8 +1340,8 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1365,7 +1355,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -1439,7 +1429,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1460,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1475,8 +1465,8 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1486,38 +1476,38 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1526,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1583,7 +1573,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1604,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1619,8 +1609,8 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1634,7 +1624,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -1707,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EBB1D0-1282-4E02-9D1F-749340B158E4}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1729,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1744,8 +1734,8 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1759,7 +1749,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -1829,6 +1819,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2077,34 +2094,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2121,23 +2130,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_accesscontrol.xlsx
+++ b/revref_accesscontrol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAC44C0-FC0B-4D77-ACF0-6E57AE373B9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F435E477-F5D6-431F-8629-B90EA9904348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30960" windowHeight="8805" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7815" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>header1</t>
   </si>
@@ -54,13 +54,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>公開日や公開終了日を設定したい</t>
   </si>
   <si>
     <t>利用制限条件を満たさない場合、条件を表示するのではなく、項目自体を非表示にしたい</t>
@@ -171,8 +164,153 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>利用制限の設定方法については、前ページをご参照ください
-https://support.vle.hiroshima-u.ac.jp/man/revref_accesscontrol/p1.html
+    <t>AC_3.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「利用制限」では、セクションや活動、リソースの利用条件を設定することができます&lt;br&gt;
+「利用制限」の条件設定により、コンテンツの公開日、公開終了日を設定することができます&lt;br&gt;例ではあるコースのセクションの公開日、公開終了日を設定します</t>
+    <rPh sb="51" eb="53">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>コウカイビ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>準備中です。公開をお待ちください。</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンビチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例では、あるコースのセクションを特定の学生のみ利用できるよう設定します</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「利用制限」で「制限を追加する…」をクリックし、「ユーザプロファイル」を選択します
+「選択…」＞「広大ID」を選択し、利用させたい学生の学生番号を入力することで、条件に合致する学生だけに公開することができます</t>
+    <rPh sb="1" eb="3">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="69" eb="73">
+      <t>ガクセイバンゴウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AC_4.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用制限</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向け逆引きガイド _利用制限</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギャクビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>公開日や公開終了日を設定したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用制限の設定方法については、&lt;a href="p1.html"&gt;公開日や公開終了日を設定したい&lt;/a&gt;をご参照ください
 ・利用制限の設定の目のマークを「表示」にすると、条件を満たさない場合に学生に条件が表示されます
 ・利用制限の設定の目のマークを「非表示」にすると、条件を満たさない場合に学生からはコンテンツが非表示になります</t>
     <rPh sb="0" eb="2">
@@ -187,115 +325,74 @@
     <rPh sb="7" eb="9">
       <t>ホウホウ</t>
     </rPh>
-    <rPh sb="15" eb="16">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="54" eb="56">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="109" eb="110">
+    <rPh sb="71" eb="72">
       <t>メ</t>
     </rPh>
-    <rPh sb="116" eb="118">
+    <rPh sb="78" eb="80">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="124" eb="126">
+    <rPh sb="86" eb="88">
       <t>ジョウケン</t>
     </rPh>
-    <rPh sb="127" eb="128">
+    <rPh sb="89" eb="90">
       <t>ミ</t>
     </rPh>
-    <rPh sb="132" eb="134">
+    <rPh sb="94" eb="96">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="135" eb="137">
+    <rPh sb="97" eb="99">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="138" eb="140">
+    <rPh sb="100" eb="102">
       <t>ジョウケン</t>
     </rPh>
-    <rPh sb="141" eb="143">
+    <rPh sb="103" eb="105">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="164" eb="165">
+    <rPh sb="126" eb="127">
       <t>ヒ</t>
     </rPh>
-    <rPh sb="184" eb="186">
+    <rPh sb="146" eb="148">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="195" eb="198">
+    <rPh sb="157" eb="160">
       <t>ヒヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>AC_3.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「利用制限」では、セクションや活動、リソースの利用条件を設定することができます&lt;br&gt;
-「利用制限」の条件設定により、コンテンツの公開日、公開終了日を設定することができます&lt;br&gt;例ではあるコースのセクションの公開日、公開終了日を設定します</t>
-    <rPh sb="51" eb="53">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="65" eb="68">
-      <t>コウカイビ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>準備中です。公開をお待ちください。</t>
-    <rPh sb="0" eb="3">
-      <t>ジュンビチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウカイ</t>
+    <t>&lt;h3&gt;特定の課題や小テストの評定点で項目のアクセス制御する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カダイ</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例では、あるコースのセクションを特定の学生のみ利用できるよう設定します</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トクテイ</t>
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テン</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>リヨウ</t>
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイギョ</t>
     </rPh>
     <rPh sb="30" eb="32">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「利用制限」で「制限を追加する…」をクリックし、「ユーザプロファイル」を選択します
-「選択…」＞「広大ID」を選択し、利用させたい学生の学生番号を入力することで、条件に合致する学生だけに公開することができます</t>
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「利用制限」で「制限を追加する…」をクリックし、「評点」を選択します</t>
     <rPh sb="1" eb="3">
       <t>リヨウ</t>
     </rPh>
@@ -308,67 +405,108 @@
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="25" eb="27">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
       <t>センタク</t>
     </rPh>
-    <rPh sb="44" eb="46">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「評点」の「選択…」をクリックして、制御したい評定点の課題や小テストを選択します</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>センタク</t>
     </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
+    <rPh sb="18" eb="20">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>センタク</t>
     </rPh>
-    <rPh sb="60" eb="62">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評点が基準値（％）より多いまたは同じ場合は「評点≥」にチェックを入れ、基準値を入力してください&lt;br&gt;
+評点が基準値（％）より小さい同じ場合は「評点&lt;」にチェックを入れ、基準値を入力してください</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キジュンチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>キジュンチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「保存してコースに戻る」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件を満たしていない学生のコース上から非表示にしたい場合は、目のマークをクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="69" eb="73">
-      <t>ガクセイバンゴウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>コウカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AC_4.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>利用制限</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向け逆引きガイド _利用制限</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ギャクビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <rPh sb="16" eb="17">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -468,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -854,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -870,18 +1011,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="6"/>
@@ -901,7 +1040,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -921,8 +1060,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>8</v>
+      <c r="B2" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -938,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -948,38 +1087,38 @@
     <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -988,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1048,7 +1187,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1069,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1085,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1096,16 +1235,16 @@
       <c r="A6" s="11"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1178,9 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEED1394-778B-44A1-8BD1-9664B9C3F9BF}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1200,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1216,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1230,34 +1367,53 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
@@ -1325,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1341,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1355,7 +1511,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -1450,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1466,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1476,38 +1632,38 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1516,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1594,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1610,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1624,7 +1780,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -1719,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1735,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1749,7 +1905,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -1819,6 +1975,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -1834,15 +1999,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2095,20 +2251,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/revref_accesscontrol.xlsx
+++ b/revref_accesscontrol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F435E477-F5D6-431F-8629-B90EA9904348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9DF346-ACAF-4EAB-9B86-71128DAD3AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7815" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -442,7 +442,42 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>評点が基準値（％）より多いまたは同じ場合は「評点≥」にチェックを入れ、基準値を入力してください&lt;br&gt;
+    <t>「保存してコースに戻る」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件を満たしていない学生のコース上から非表示にしたい場合は、目のマークをクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評点が基準値（％）より大きいまたは同じ場合は「評点≥」にチェックを入れ、基準値を入力してください&lt;br&gt;
 評点が基準値（％）より小さい同じ場合は「評点&lt;」にチェックを入れ、基準値を入力してください</t>
     <rPh sb="0" eb="2">
       <t>ヒョウテン</t>
@@ -453,58 +488,23 @@
     <rPh sb="11" eb="12">
       <t>オオ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>オナ</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="19" eb="21">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="23" eb="25">
       <t>ヒョウテン</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="33" eb="34">
       <t>イ</t>
     </rPh>
-    <rPh sb="35" eb="38">
+    <rPh sb="36" eb="39">
       <t>キジュンチ</t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="40" eb="42">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「保存してコースに戻る」をクリックします</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>条件を満たしていない学生のコース上から非表示にしたい場合は、目のマークをクリックします</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>メ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1317,7 +1317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEED1394-778B-44A1-8BD1-9664B9C3F9BF}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1400,19 +1402,19 @@
     <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1975,33 +1977,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2250,10 +2225,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2270,20 +2283,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_accesscontrol.xlsx
+++ b/revref_accesscontrol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9DF346-ACAF-4EAB-9B86-71128DAD3AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C3E70D-4F3C-4CA3-8713-18D843A30023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7815" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -477,33 +477,46 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>評点が基準値（％）より大きいまたは同じ場合は「評点≥」にチェックを入れ、基準値を入力してください&lt;br&gt;
+    <t>アクセス制限する評定点の条件を設定します&lt;br&gt;
+評点が基準値（％）より大きいまたは同じ場合は「評点≥」にチェックを入れ、基準値を入力してください&lt;br&gt;
 評点が基準値（％）より小さい同じ場合は「評点&lt;」にチェックを入れ、基準値を入力してください</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="4" eb="6">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒョウテイテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
       <t>ヒョウテン</t>
     </rPh>
-    <rPh sb="3" eb="6">
+    <rPh sb="28" eb="31">
       <t>キジュンチ</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="36" eb="37">
       <t>オオ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="42" eb="43">
       <t>オナ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="44" eb="46">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="48" eb="50">
       <t>ヒョウテン</t>
     </rPh>
-    <rPh sb="33" eb="34">
+    <rPh sb="58" eb="59">
       <t>イ</t>
     </rPh>
-    <rPh sb="36" eb="39">
+    <rPh sb="61" eb="64">
       <t>キジュンチ</t>
     </rPh>
-    <rPh sb="40" eb="42">
+    <rPh sb="65" eb="67">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1318,7 +1331,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1399,7 +1412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="13" t="s">
         <v>34</v>
@@ -1977,6 +1990,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2225,34 +2265,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2269,23 +2301,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>